--- a/Resources/Data/Stage01.xlsx
+++ b/Resources/Data/Stage01.xlsx
@@ -671,14 +671,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -697,134 +690,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1196,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1209,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1231,16 +1096,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1278,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1295,316 +1160,60 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/Data/Stage01.xlsx
+++ b/Resources/Data/Stage01.xlsx
@@ -671,7 +671,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -689,7 +689,142 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1061,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1074,10 +1209,10 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1096,16 +1231,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1143,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1160,60 +1295,316 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
